--- a/premier_league_classificacao_arquivo_de_saida.xlsx
+++ b/premier_league_classificacao_arquivo_de_saida.xlsx
@@ -483,14 +483,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -499,75 +499,75 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -576,29 +576,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -607,11 +607,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -620,56 +620,56 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -688,54 +688,54 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8</v>
-      </c>
       <c r="H9" t="n">
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -744,72 +744,72 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>5</v>
@@ -824,63 +824,63 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -902,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16">
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
         <v>-2</v>
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
         <v>-5</v>
@@ -1010,14 +1010,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
         <v>-7</v>
@@ -1041,60 +1041,60 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
         <v>-9</v>

--- a/premier_league_classificacao_arquivo_de_saida.xlsx
+++ b/premier_league_classificacao_arquivo_de_saida.xlsx
@@ -483,11 +483,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -496,32 +496,32 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -530,16 +530,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -589,32 +589,32 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
         <v>6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
         <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -700,11 +700,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -713,16 +713,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -731,14 +731,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -747,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>

--- a/premier_league_classificacao_arquivo_de_saida.xlsx
+++ b/premier_league_classificacao_arquivo_de_saida.xlsx
@@ -483,141 +483,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
         <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -626,134 +626,134 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -762,63 +762,63 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -828,25 +828,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>-2</v>
@@ -855,23 +855,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -890,25 +890,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
         <v>-4</v>
@@ -917,76 +917,76 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -995,60 +995,60 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
         <v>-9</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1088,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/premier_league_classificacao_arquivo_de_saida.xlsx
+++ b/premier_league_classificacao_arquivo_de_saida.xlsx
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -502,29 +502,29 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -533,29 +533,29 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -564,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -580,25 +580,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -638,29 +638,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -700,324 +700,324 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20">
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I20" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="21">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1088,16 +1088,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
